--- a/3 TP Analysis/01 - Data/PROCESSED_benthic_cover_April_2022.xlsx
+++ b/3 TP Analysis/01 - Data/PROCESSED_benthic_cover_April_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shannon/GitHub/NFI_benthic_community/3 TP Analysis/01 - Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A17EA5-738E-E54B-8113-9BFA0D1E3F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D277D8B-39D5-6046-A29E-F3E4ED4BCF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="540" windowWidth="26740" windowHeight="15900" xr2:uid="{3A9CB6CA-8D83-2140-A771-1FD251CEE3A4}"/>
   </bookViews>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73083AF3-D5F5-9E40-86B8-7E3E61F00B67}">
   <dimension ref="A1:AE437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A173" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40029,7 +40029,7 @@
         <v>1</v>
       </c>
       <c r="L403" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M403" s="1">
         <v>0</v>
@@ -40059,7 +40059,7 @@
         <v>0</v>
       </c>
       <c r="V403" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W403" s="1">
         <v>0</v>
